--- a/data/trans_orig/P2A_senso_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F8F6ECD-3B78-44CD-B203-17FF449EE435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5587F79-0BC1-4AF3-863C-A520A33FB7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4274388F-D5FF-435A-9069-63EEECB4C98C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22CABD1C-4C83-4C7A-9ABB-7743991410F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="257">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="265">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,739 +77,763 @@
     <t>3,34%</t>
   </si>
   <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>80,93%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709B625A-B87D-400D-B63C-F214CB41FAF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6213088-5537-4306-B356-3C5318EF15D0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1548,7 +1572,7 @@
         <v>1637</v>
       </c>
       <c r="D8" s="7">
-        <v>1681253</v>
+        <v>1681252</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1599,7 +1623,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1816,7 +1840,7 @@
         <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -1825,13 +1849,13 @@
         <v>53915</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -1840,7 +1864,7 @@
         <v>104629</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>75</v>
@@ -1858,16 +1882,16 @@
         <v>3164</v>
       </c>
       <c r="D14" s="7">
-        <v>3225829</v>
+        <v>3225830</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>3245</v>
@@ -1876,22 +1900,22 @@
         <v>3325283</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>6409</v>
       </c>
       <c r="N14" s="7">
-        <v>6551112</v>
+        <v>6551111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>83</v>
@@ -1909,7 +1933,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1939,7 +1963,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1972,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A639F9E8-490C-43E9-8735-065AE5080221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BFE148-19E8-4689-98FA-0DFBB5B7E820}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2102,7 +2126,7 @@
         <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -2111,10 +2135,10 @@
         <v>31859</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>91</v>
@@ -2150,10 +2174,10 @@
         <v>95</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>1216</v>
@@ -2162,13 +2186,13 @@
         <v>1305937</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="M5" s="7">
         <v>2105</v>
@@ -2254,10 +2278,10 @@
         <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -2266,13 +2290,13 @@
         <v>29523</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -2281,13 +2305,13 @@
         <v>59008</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,13 +2326,13 @@
         <v>1934472</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>1609</v>
@@ -2317,13 +2341,13 @@
         <v>1728280</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>3437</v>
@@ -2332,13 +2356,13 @@
         <v>3662752</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2430,13 @@
         <v>7050</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2421,13 +2445,13 @@
         <v>15460</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2436,13 +2460,13 @@
         <v>22509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2481,13 @@
         <v>474131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>399</v>
@@ -2472,13 +2496,13 @@
         <v>443171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -2487,13 +2511,13 @@
         <v>917303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2585,13 @@
         <v>57692</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -2576,13 +2600,13 @@
         <v>76842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -2591,13 +2615,13 @@
         <v>134534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2636,13 @@
         <v>3362090</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>3224</v>
@@ -2627,13 +2651,13 @@
         <v>3477388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>6374</v>
@@ -2642,13 +2666,13 @@
         <v>6839478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,7 +2747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2059A66-36A6-4F51-9709-95CE18712C8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32B1182-FABA-4239-BDED-5B3DA1722B5C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2740,7 +2764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2847,13 +2871,13 @@
         <v>12197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -2862,13 +2886,13 @@
         <v>15993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2877,13 +2901,13 @@
         <v>28190</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2922,13 @@
         <v>742150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7">
         <v>879</v>
@@ -2913,13 +2937,13 @@
         <v>978667</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>1630</v>
@@ -2928,13 +2952,13 @@
         <v>1720817</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3026,13 @@
         <v>18518</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -3017,13 +3041,13 @@
         <v>19809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3032,13 +3056,13 @@
         <v>38326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3077,13 @@
         <v>2057867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>1888</v>
@@ -3068,13 +3092,13 @@
         <v>1968491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>3825</v>
@@ -3083,13 +3107,13 @@
         <v>4026359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3181,13 @@
         <v>3737</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3172,13 +3196,13 @@
         <v>1920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3187,13 +3211,13 @@
         <v>5657</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3232,13 @@
         <v>543149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -3223,13 +3247,13 @@
         <v>547220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>1021</v>
@@ -3238,13 +3262,13 @@
         <v>1090369</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3336,13 @@
         <v>34452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3327,13 +3351,13 @@
         <v>37722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3342,13 +3366,13 @@
         <v>72174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3387,13 @@
         <v>3343166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>3291</v>
@@ -3378,13 +3402,13 @@
         <v>3494378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>6476</v>
@@ -3393,13 +3417,13 @@
         <v>6837544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,7 +3498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642C31BE-6EDA-4B6F-A807-4416937B9EA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586C2C3-FDA1-4DCD-AF75-9F7E7FCE8F68}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3491,7 +3515,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3598,13 +3622,13 @@
         <v>17895</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>85</v>
@@ -3613,13 +3637,13 @@
         <v>51125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>106</v>
@@ -3628,13 +3652,13 @@
         <v>69020</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3673,13 @@
         <v>523739</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>1342</v>
@@ -3664,13 +3688,13 @@
         <v>784828</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M5" s="7">
         <v>2012</v>
@@ -3679,13 +3703,13 @@
         <v>1308566</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,10 +3780,10 @@
         <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -3768,13 +3792,13 @@
         <v>162853</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>129</v>
@@ -3783,10 +3807,10 @@
         <v>212311</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>224</v>
@@ -3810,22 +3834,22 @@
         <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>2842</v>
       </c>
       <c r="I8" s="7">
-        <v>2086668</v>
+        <v>2086667</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>4784</v>
@@ -3834,13 +3858,13 @@
         <v>4199232</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,7 +3891,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3908,13 +3932,13 @@
         <v>13401</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3923,13 +3947,13 @@
         <v>12152</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3938,13 +3962,13 @@
         <v>25553</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3983,13 @@
         <v>659638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>982</v>
@@ -3974,13 +3998,13 @@
         <v>701734</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>1648</v>
@@ -3989,13 +4013,13 @@
         <v>1361373</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4087,13 @@
         <v>80754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -4078,13 +4102,13 @@
         <v>226130</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>272</v>
@@ -4093,13 +4117,13 @@
         <v>306884</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,16 +4135,16 @@
         <v>3278</v>
       </c>
       <c r="D14" s="7">
-        <v>3295940</v>
+        <v>3295941</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>163</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
         <v>5166</v>
@@ -4129,28 +4153,28 @@
         <v>3573230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>8444</v>
       </c>
       <c r="N14" s="7">
-        <v>6869170</v>
+        <v>6869171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,7 +4186,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4192,7 +4216,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P2A_senso_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5587F79-0BC1-4AF3-863C-A520A33FB7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D9F4B9-24BE-415B-8E64-380894418B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22CABD1C-4C83-4C7A-9ABB-7743991410F1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7134CF6D-9900-448B-B3C9-96E959B79181}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="249">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -146,360 +146,351 @@
     <t>1,27%</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
     <t>98,39%</t>
   </si>
   <si>
@@ -512,9 +503,6 @@
     <t>97,58%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
     <t>0,89%</t>
   </si>
   <si>
@@ -524,9 +512,6 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>1,58%</t>
   </si>
   <si>
@@ -548,9 +533,6 @@
     <t>98,42%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
     <t>99,06%</t>
   </si>
   <si>
@@ -638,202 +620,172 @@
     <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
   </si>
   <si>
     <t>98,01%</t>
   </si>
   <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6213088-5537-4306-B356-3C5318EF15D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE231F4-7198-4310-8F7B-27C5936FC5D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1447,7 +1399,7 @@
         <v>2261</v>
       </c>
       <c r="N5" s="7">
-        <v>2278017</v>
+        <v>2278016</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1498,7 +1450,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1533,10 +1485,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>15587</v>
+        <v>16738</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1548,10 +1500,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>27747</v>
+        <v>28898</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1572,7 +1524,7 @@
         <v>1637</v>
       </c>
       <c r="D8" s="7">
-        <v>1681252</v>
+        <v>1681253</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1584,10 +1536,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I8" s="7">
-        <v>1572086</v>
+        <v>1570935</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1599,10 +1551,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="N8" s="7">
-        <v>3253339</v>
+        <v>3252188</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1623,7 +1575,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1688,10 +1640,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>4012</v>
+        <v>4965</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1703,19 +1655,19 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>8063</v>
+        <v>9016</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,43 +1682,43 @@
         <v>547357</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7">
+        <v>447</v>
+      </c>
+      <c r="I11" s="7">
+        <v>471447</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>448</v>
-      </c>
-      <c r="I11" s="7">
-        <v>472400</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="M11" s="7">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N11" s="7">
-        <v>1019757</v>
+        <v>1018804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,43 +1786,43 @@
         <v>50714</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>53915</v>
+        <v>56019</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>104629</v>
+        <v>106733</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,46 +1834,46 @@
         <v>3164</v>
       </c>
       <c r="D14" s="7">
-        <v>3225830</v>
+        <v>3225829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="I14" s="7">
-        <v>3325283</v>
+        <v>3323178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
-        <v>6409</v>
+        <v>6407</v>
       </c>
       <c r="N14" s="7">
-        <v>6551111</v>
+        <v>6549008</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,7 +1885,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1948,7 +1900,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1963,7 +1915,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1977,7 +1929,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BFE148-19E8-4689-98FA-0DFBB5B7E820}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197B1292-39D0-48DB-AC59-142002B29831}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2013,7 +1965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2120,13 +2072,13 @@
         <v>21157</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -2135,13 +2087,13 @@
         <v>31859</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2150,13 +2102,13 @@
         <v>53016</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,28 +2123,28 @@
         <v>953486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>1216</v>
       </c>
       <c r="I5" s="7">
-        <v>1305937</v>
+        <v>1305938</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>2105</v>
@@ -2201,13 +2153,13 @@
         <v>2259424</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,7 +2186,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2275,13 +2227,13 @@
         <v>29485</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -2290,13 +2242,13 @@
         <v>29523</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -2305,13 +2257,13 @@
         <v>59008</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2278,13 @@
         <v>1934472</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="H8" s="7">
         <v>1609</v>
@@ -2341,13 +2293,13 @@
         <v>1728280</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>3437</v>
@@ -2356,13 +2308,13 @@
         <v>3662752</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,7 +2460,7 @@
         <v>832</v>
       </c>
       <c r="N11" s="7">
-        <v>917303</v>
+        <v>917304</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>128</v>
@@ -2559,7 +2511,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2585,7 +2537,7 @@
         <v>57692</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>131</v>
@@ -2603,10 +2555,10 @@
         <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -2615,13 +2567,13 @@
         <v>134534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2588,13 @@
         <v>3362090</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>3224</v>
@@ -2651,13 +2603,13 @@
         <v>3477388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>6374</v>
@@ -2666,13 +2618,13 @@
         <v>6839478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,7 +2680,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2747,7 +2699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32B1182-FABA-4239-BDED-5B3DA1722B5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7726F7-FA31-4D1A-8A3E-74454D879805}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2764,7 +2716,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2871,10 +2823,10 @@
         <v>12197</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
@@ -2886,13 +2838,13 @@
         <v>15993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2901,13 +2853,13 @@
         <v>28190</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2874,13 @@
         <v>742150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>879</v>
@@ -2937,13 +2889,13 @@
         <v>978667</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
         <v>1630</v>
@@ -2952,13 +2904,13 @@
         <v>1720817</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2978,10 @@
         <v>18518</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>121</v>
@@ -3041,13 +2993,13 @@
         <v>19809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3056,10 +3008,10 @@
         <v>38326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>34</v>
@@ -3077,13 +3029,13 @@
         <v>2057867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>1888</v>
@@ -3092,13 +3044,13 @@
         <v>1968491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3825</v>
@@ -3107,13 +3059,13 @@
         <v>4026359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3133,13 @@
         <v>3737</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3196,13 +3148,13 @@
         <v>1920</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3211,13 +3163,13 @@
         <v>5657</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,13 +3184,13 @@
         <v>543149</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>524</v>
@@ -3247,28 +3199,28 @@
         <v>547220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1021</v>
       </c>
       <c r="N11" s="7">
-        <v>1090369</v>
+        <v>1090370</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,7 +3262,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3336,10 +3288,10 @@
         <v>34452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>115</v>
@@ -3351,13 +3303,13 @@
         <v>37722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3366,13 +3318,13 @@
         <v>72174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3339,13 @@
         <v>3343166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>3291</v>
@@ -3402,13 +3354,13 @@
         <v>3494378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>6476</v>
@@ -3417,13 +3369,13 @@
         <v>6837544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,7 +3431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3498,7 +3450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586C2C3-FDA1-4DCD-AF75-9F7E7FCE8F68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60CF48B-F5A4-47D4-9F8E-2D0513054D73}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3515,7 +3467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3619,46 +3571,46 @@
         <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>17895</v>
+        <v>16786</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="7">
+        <v>83</v>
+      </c>
+      <c r="I4" s="7">
+        <v>45053</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" s="7">
+        <v>104</v>
+      </c>
+      <c r="N4" s="7">
+        <v>61838</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="7">
-        <v>85</v>
-      </c>
-      <c r="I4" s="7">
-        <v>51125</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M4" s="7">
-        <v>106</v>
-      </c>
-      <c r="N4" s="7">
-        <v>69020</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,46 +3622,46 @@
         <v>670</v>
       </c>
       <c r="D5" s="7">
-        <v>523739</v>
+        <v>498152</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1344</v>
+      </c>
+      <c r="I5" s="7">
+        <v>710455</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2014</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1208608</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1342</v>
-      </c>
-      <c r="I5" s="7">
-        <v>784828</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2012</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1308566</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,7 +3673,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3736,7 +3688,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3751,7 +3703,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3774,46 +3726,46 @@
         <v>50</v>
       </c>
       <c r="D7" s="7">
-        <v>49458</v>
+        <v>47425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>162853</v>
+        <v>251331</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N7" s="7">
-        <v>212311</v>
+        <v>298756</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,46 +3777,46 @@
         <v>1942</v>
       </c>
       <c r="D8" s="7">
-        <v>2112564</v>
+        <v>2242902</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="I8" s="7">
-        <v>2086667</v>
+        <v>1986492</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="M8" s="7">
-        <v>4784</v>
+        <v>4786</v>
       </c>
       <c r="N8" s="7">
-        <v>4199232</v>
+        <v>4229394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,7 +3828,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3891,7 +3843,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3906,7 +3858,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3926,49 +3878,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>13401</v>
+        <v>11842</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>12152</v>
+        <v>10654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>25553</v>
+        <v>22496</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,49 +3929,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D11" s="7">
-        <v>659638</v>
+        <v>634781</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="I11" s="7">
-        <v>701734</v>
+        <v>649809</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="N11" s="7">
-        <v>1361373</v>
+        <v>1284590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,7 +3983,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4046,7 +3998,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4061,7 +4013,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4081,49 +4033,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7">
-        <v>80754</v>
+        <v>76052</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I13" s="7">
-        <v>226130</v>
+        <v>307037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N13" s="7">
-        <v>306884</v>
+        <v>383089</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,49 +4084,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="D14" s="7">
-        <v>3295941</v>
+        <v>3375837</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
-        <v>5166</v>
+        <v>5171</v>
       </c>
       <c r="I14" s="7">
-        <v>3573230</v>
+        <v>3346757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
-        <v>8444</v>
+        <v>8450</v>
       </c>
       <c r="N14" s="7">
-        <v>6869171</v>
+        <v>6722594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,7 +4138,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4201,7 +4153,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4216,7 +4168,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4230,7 +4182,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
